--- a/School.Web/wwwroot/UploadExcel/ListaCurta_UFCDs.xlsx
+++ b/School.Web/wwwroot/UploadExcel/ListaCurta_UFCDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isabel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5062C85E-6B22-4078-9952-739B35EDBDE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93722809-CC7C-435E-9695-B085B8829042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE69B4B8-ED6C-435C-87C8-5632BE2C6E2F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Código
 UFCD</t>
@@ -100,6 +100,30 @@
   </si>
   <si>
     <t>Imagem/vídeo - captação, registo e edição</t>
+  </si>
+  <si>
+    <t>Aviso: As UFCD integradas exclusivamente em Referenciais de Formação de Nível 5 não podem ser ministradas em Formações Modulares</t>
+  </si>
+  <si>
+    <t>0162</t>
+  </si>
+  <si>
+    <t>Caracterização e seleção de diferentes tipos de pedra</t>
+  </si>
+  <si>
+    <t>215007</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>Artesanato</t>
+  </si>
+  <si>
+    <t>Canteiro/a</t>
+  </si>
+  <si>
+    <t>Nível 2</t>
   </si>
 </sst>
 </file>
@@ -486,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA03F68-9F39-4150-8444-6AA03307CF9B}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,99 +530,136 @@
     <col min="10" max="10" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>18</v>
       </c>
     </row>

--- a/School.Web/wwwroot/UploadExcel/ListaCurta_UFCDs.xlsx
+++ b/School.Web/wwwroot/UploadExcel/ListaCurta_UFCDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isabel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93722809-CC7C-435E-9695-B085B8829042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABC8E6E-B1CF-4309-8B7A-19F7F257F50B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE69B4B8-ED6C-435C-87C8-5632BE2C6E2F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>Código
 UFCD</t>
@@ -124,6 +124,33 @@
   </si>
   <si>
     <t>Nível 2</t>
+  </si>
+  <si>
+    <t>5420</t>
+  </si>
+  <si>
+    <t>Integração de sistemas de informação - conceitos</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>481241</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>Ciências Informáticas</t>
+  </si>
+  <si>
+    <t>Técnico/a Especialista em Tecnologias e Programação de Sistemas de Informação</t>
+  </si>
+  <si>
+    <t>5421</t>
+  </si>
+  <si>
+    <t>Integração de sistemas de informação - tecnologias e níveis de Integração</t>
   </si>
 </sst>
 </file>
@@ -510,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA03F68-9F39-4150-8444-6AA03307CF9B}">
-  <dimension ref="A2:J7"/>
+  <dimension ref="A2:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,6 +690,70 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
